--- a/xlsx/烟草_intext.xlsx
+++ b/xlsx/烟草_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="752">
   <si>
     <t>烟草</t>
   </si>
@@ -29,7 +29,7 @@
     <t>黄花烟草</t>
   </si>
   <si>
-    <t>政策_政策_美國_烟草</t>
+    <t>政策_政策_美国_烟草</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E8%8C%84</t>
@@ -41,25 +41,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E7%85%99</t>
   </si>
   <si>
-    <t>香煙</t>
+    <t>香烟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BC%BB%E7%85%99</t>
   </si>
   <si>
-    <t>鼻煙</t>
+    <t>鼻烟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9A%BC%E7%85%99</t>
   </si>
   <si>
-    <t>嚼煙</t>
+    <t>嚼烟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%85%99</t>
   </si>
   <si>
-    <t>水煙</t>
+    <t>水烟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E4%B8%81</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E8%8D%89%E5%B1%AC</t>
   </si>
   <si>
-    <t>煙草屬</t>
+    <t>烟草属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E9%B9%BC</t>
   </si>
   <si>
-    <t>生物鹼</t>
+    <t>生物碱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E8%99%AB</t>
@@ -125,25 +125,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F</t>
   </si>
   <si>
-    <t>心臟</t>
+    <t>心脏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%9D%E8%87%9F</t>
   </si>
   <si>
-    <t>肝臟</t>
+    <t>肝脏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%BA%E8%87%9F</t>
   </si>
   <si>
-    <t>肺臟</t>
+    <t>肺脏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%80%E8%99%AB%E5%89%82</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%89%8B%E7%85%99</t>
   </si>
   <si>
-    <t>二手煙</t>
+    <t>二手烟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%89%8B%E7%83%9F</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%A0%B4%E6%89%80</t>
   </si>
   <si>
-    <t>公共場所</t>
+    <t>公共场所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E9%BD%BF</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%B2%E9%B6%9A</t>
   </si>
   <si>
-    <t>厲鶚</t>
+    <t>厉鹗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E6%9B%86</t>
   </si>
   <si>
-    <t>萬曆</t>
+    <t>万历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%BB%BA</t>
@@ -317,21 +317,15 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E6%8C%AF%E9%BE%8D</t>
   </si>
   <si>
-    <t>陳振龍</t>
+    <t>陈振龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E5%AE%8B</t>
   </si>
   <si>
-    <t>呂宋</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E8%8D%89</t>
   </si>
   <si>
-    <t>煙草</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E6%B8%AF</t>
   </si>
   <si>
@@ -341,27 +335,21 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%91%AA%E7%AB%87</t>
   </si>
   <si>
-    <t>利瑪竇</t>
+    <t>利玛窦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BC%BB%E7%83%9F</t>
   </si>
   <si>
-    <t>鼻烟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%9D%B1</t>
   </si>
   <si>
-    <t>廣東</t>
+    <t>广东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E4%BB%A5%E6%99%BA</t>
   </si>
   <si>
@@ -371,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B4%87%E7%A6%8E</t>
   </si>
   <si>
-    <t>崇禎</t>
+    <t>崇祯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E7%83%9F</t>
@@ -383,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E6%9D%B1</t>
   </si>
   <si>
-    <t>遼東</t>
+    <t>辽东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E9%87%91</t>
   </si>
   <si>
-    <t>後金</t>
+    <t>后金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B5%E9%83%A8%E5%B0%9A%E4%B9%A6</t>
@@ -401,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%89%BF%E7%96%87</t>
   </si>
   <si>
-    <t>洪承疇</t>
+    <t>洪承畴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -449,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E7%90%AE</t>
   </si>
   <si>
-    <t>陳琮</t>
+    <t>陈琮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%A5%96%E6%9C%9B</t>
@@ -467,25 +455,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B3%E8%91%89%E5%88%80_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>柳葉刀 (雜誌)</t>
+    <t>柳叶刀 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%88%B6%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>江戶時期</t>
+    <t>江户时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%80%A7%E6%B0%A3%E6%A6%82</t>
   </si>
   <si>
-    <t>男性氣概</t>
+    <t>男性气概</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E4%B8%AD%E5%9B%BD%E5%AE%B6</t>
@@ -497,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%96%BE%E7%97%85%E6%8E%A7%E5%88%B6%E8%88%87%E9%A0%90%E9%98%B2%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>美國疾病控制與預防中心</t>
+    <t>美国疾病控制与预防中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%82%8C%E6%A2%97%E6%AD%BB</t>
@@ -515,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%A2%A8</t>
   </si>
   <si>
-    <t>中風</t>
+    <t>中风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%A2%E6%80%A7%E9%98%BB%E5%A1%9E%E6%80%A7%E8%82%BA%E7%97%85</t>
@@ -551,25 +539,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%88%E5%A5%AE%E5%8A%91</t>
   </si>
   <si>
-    <t>興奮劑</t>
+    <t>兴奋剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9%E8%80%90%E5%8F%97%E6%80%A7</t>
   </si>
   <si>
-    <t>藥物耐受性</t>
+    <t>药物耐受性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA%E4%BE%9D%E8%B3%B4</t>
   </si>
   <si>
-    <t>物質依賴</t>
+    <t>物质依赖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%92%B0%E8%8A%B3%E9%A6%99%E7%83%B4</t>
   </si>
   <si>
-    <t>多環芳香烴</t>
+    <t>多环芳香烃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%86%9B</t>
@@ -581,13 +569,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%98</t>
   </si>
   <si>
-    <t>鎘</t>
+    <t>镉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%B3</t>
   </si>
   <si>
-    <t>鎳</t>
+    <t>镍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B7</t>
@@ -611,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E8%8D%89%E7%A8%AE%E6%A4%8D</t>
   </si>
   <si>
-    <t>煙草種植</t>
+    <t>烟草种植</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%96%86</t>
@@ -689,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82%E6%80%A7%E8%97%A5%E7%89%A9</t>
   </si>
   <si>
-    <t>娛樂性藥物</t>
+    <t>娱乐性药物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Depressant</t>
@@ -785,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%80%E9%87%8B%E6%B6%B2</t>
   </si>
   <si>
-    <t>稀釋液</t>
+    <t>稀释液</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%9F%E5%88%A9%E6%98%82</t>
@@ -815,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%89%E7%89%87%E9%A1%9E%E8%97%A5%E7%89%A9</t>
   </si>
   <si>
-    <t>鴉片類藥物</t>
+    <t>鸦片类药物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Buprenorphine</t>
@@ -833,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%AB%E5%8E%BB%E6%B0%A7%E5%97%8E%E5%95%A1</t>
   </si>
   <si>
-    <t>二氫去氧嗎啡</t>
+    <t>二氢去氧吗啡</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dextropropoxyphene</t>
@@ -881,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%97%8E%E5%95%A1</t>
   </si>
   <si>
-    <t>嗎啡</t>
+    <t>吗啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B8%A6%E7%89%87</t>
@@ -905,9 +893,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B4%E5%A5%8B%E5%89%82</t>
   </si>
   <si>
-    <t>兴奋剂</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%AF%E4%B8%99%E8%83%BA</t>
   </si>
   <si>
@@ -989,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E9%BB%83%E9%B9%BC</t>
   </si>
   <si>
-    <t>麻黃鹼</t>
+    <t>麻黄碱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E9%BB%84</t>
@@ -1001,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%94%B2%E5%9F%BA%E4%BA%8C%E6%B0%A7%E5%90%A1%E5%92%AF%E6%88%8A%E9%85%AE</t>
   </si>
   <si>
-    <t>亞甲基二氧吡咯戊酮</t>
+    <t>亚甲基二氧吡咯戊酮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E6%B0%A7%E9%BA%BB%E9%BB%84%E9%85%AE</t>
@@ -1163,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%BE%BD%E7%8E%89</t>
   </si>
   <si>
-    <t>烏羽玉</t>
+    <t>乌羽玉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Echinopsis_pachanoi</t>
@@ -1241,13 +1226,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A0%85%E8%95%88%E7%B4%A0</t>
   </si>
   <si>
-    <t>蠅蕈素</t>
+    <t>蝇蕈素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E8%A0%85%E5%82%98</t>
   </si>
   <si>
-    <t>毒蠅傘</t>
+    <t>毒蝇伞</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Phencyclidine</t>
@@ -1283,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%8E%A8%E8%8F%AA%E9%B9%BC</t>
   </si>
   <si>
-    <t>東莨菪鹼</t>
+    <t>东莨菪碱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A0%E8%8C%84</t>
@@ -1343,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BA%BB_(%E8%97%A5%E7%94%A8)</t>
   </si>
   <si>
-    <t>大麻 (藥用)</t>
+    <t>大麻 (药用)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B8%8C%E4%BB%80</t>
@@ -1487,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E9%85%92%E5%B8%AB</t>
   </si>
   <si>
-    <t>調酒師</t>
+    <t>调酒师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%A4%E9%85%92%E8%8A%82</t>
@@ -1523,19 +1508,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A1%E6%A8%82%E6%99%82%E5%85%89</t>
   </si>
   <si>
-    <t>歡樂時光</t>
+    <t>欢乐时光</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%A3%BA</t>
   </si>
   <si>
-    <t>酒壺</t>
+    <t>酒壶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>夜總會</t>
+    <t>夜总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%BC%8F%E9%85%92%E5%90%A7</t>
@@ -1553,7 +1538,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%8D%E9%85%92%E5%B8%AB</t>
   </si>
   <si>
-    <t>侍酒師</t>
+    <t>侍酒师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%90%A7</t>
@@ -1625,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B8%E7%85%99</t>
   </si>
   <si>
-    <t>吸煙</t>
+    <t>吸烟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cigarette_card</t>
@@ -1661,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%80%E8%8F%B8%E7%99%96</t>
   </si>
   <si>
-    <t>戀菸癖</t>
+    <t>恋菸癖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B8%E8%8F%B8</t>
@@ -1709,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%87%B4%E5%B9%BB%E5%8A%91</t>
   </si>
   <si>
-    <t>宗教致幻劑</t>
+    <t>宗教致幻剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AC%89%E7%9A%AE%E5%A3%AB</t>
@@ -1739,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%B3%E8%88%9E</t>
   </si>
   <si>
-    <t>銳舞</t>
+    <t>锐舞</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Religion_and_drugs</t>
@@ -1775,7 +1760,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9%E5%89%8D%E9%AB%94</t>
   </si>
   <si>
-    <t>藥物前體</t>
+    <t>药物前体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Opium_production_in_Afghanistan</t>
@@ -1811,7 +1796,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA%E6%BF%AB%E7%94%A8</t>
   </si>
   <si>
-    <t>物質濫用</t>
+    <t>物质滥用</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Date_rape_drug</t>
@@ -1823,7 +1808,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%89%E9%85%92%E9%A7%95%E9%A7%9B</t>
   </si>
   <si>
-    <t>醉酒駕駛</t>
+    <t>醉酒驾驶</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Effects_of_cannabis</t>
@@ -1871,7 +1856,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%8E%E5%85%92%E9%85%92%E7%B2%BE%E8%AD%9C%E7%B3%BB%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>胎兒酒精譜系障礙</t>
+    <t>胎儿酒精谱系障碍</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Long-term_effects_of_cannabis</t>
@@ -1883,13 +1868,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E6%AF%92%E6%80%A7</t>
   </si>
   <si>
-    <t>神經毒性</t>
+    <t>神经毒性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9%E9%81%8E%E9%87%8F</t>
   </si>
   <si>
-    <t>藥物過量</t>
+    <t>药物过量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E9%86%89%E5%93%81%E5%8D%95%E4%B8%80%E5%85%AC%E7%BA%A6</t>
@@ -1997,7 +1982,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E8%97%A5%E7%89%A9%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>澳洲藥物政策</t>
+    <t>澳洲药物政策</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Drug_policy_of_Canada</t>
@@ -2039,7 +2024,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%97%A5%E7%89%A9%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>瑞士藥物政策</t>
+    <t>瑞士药物政策</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Drug_policy_of_India</t>
@@ -2123,7 +2108,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8B%A1%E8%A9%90%E5%AE%B6%E8%97%A5%E7%89%A9</t>
   </si>
   <si>
-    <t>狡詐家藥物</t>
+    <t>狡诈家药物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Drug_court</t>
@@ -2153,13 +2138,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9%E6%B8%AC%E8%A9%A6</t>
   </si>
   <si>
-    <t>藥物測試</t>
+    <t>药物测试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E6%AF%92%E5%93%81%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>墨西哥毒品戰爭</t>
+    <t>墨西哥毒品战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philippine_Drug_War</t>
@@ -2171,7 +2156,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%89%E5%A0%B1%E4%BA%BA</t>
   </si>
   <si>
-    <t>舉報人</t>
+    <t>举报人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Politics_of_drug_abuse</t>
@@ -2183,7 +2168,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E5%93%81%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>毒品戰爭</t>
+    <t>毒品战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Zero_tolerance</t>
@@ -2207,7 +2192,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%8C%96%E9%A1%9E%E5%9B%BA%E9%86%87%E5%90%88%E6%B3%95%E6%80%A7</t>
   </si>
   <si>
-    <t>同化類固醇合法性</t>
+    <t>同化类固醇合法性</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legality_of_cannabis_by_country</t>
@@ -2273,7 +2258,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2285,7 +2270,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
 </sst>
 </file>
@@ -4106,7 +4091,7 @@
         <v>101</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -4132,10 +4117,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>10</v>
@@ -4161,10 +4146,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -4190,10 +4175,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4219,10 +4204,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
@@ -4248,10 +4233,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4277,10 +4262,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="G57" t="n">
         <v>7</v>
@@ -4306,10 +4291,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4335,10 +4320,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4364,10 +4349,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -4393,10 +4378,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -4422,10 +4407,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4451,10 +4436,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4480,10 +4465,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4509,10 +4494,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4538,10 +4523,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4567,10 +4552,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4596,10 +4581,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4625,10 +4610,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4654,10 +4639,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4683,10 +4668,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4712,10 +4697,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4741,10 +4726,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4770,10 +4755,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4799,10 +4784,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4828,10 +4813,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4857,10 +4842,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4886,10 +4871,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4915,10 +4900,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4944,10 +4929,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4973,10 +4958,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5002,10 +4987,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5031,10 +5016,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5060,10 +5045,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5089,10 +5074,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -5118,10 +5103,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -5147,10 +5132,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5176,10 +5161,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5234,10 +5219,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>5</v>
@@ -5263,10 +5248,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5292,10 +5277,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5321,10 +5306,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5350,10 +5335,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5379,10 +5364,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5408,10 +5393,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5437,10 +5422,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5466,10 +5451,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5495,10 +5480,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -5524,10 +5509,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -5553,10 +5538,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5582,10 +5567,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>6</v>
@@ -5611,10 +5596,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5640,10 +5625,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5698,10 +5683,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5727,10 +5712,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5756,10 +5741,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5785,10 +5770,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5814,10 +5799,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>4</v>
@@ -5843,10 +5828,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5872,10 +5857,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5901,10 +5886,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>6</v>
@@ -5930,10 +5915,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5959,10 +5944,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5988,10 +5973,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6017,10 +6002,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6046,10 +6031,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6075,10 +6060,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6104,10 +6089,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>19</v>
@@ -6133,10 +6118,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -6162,10 +6147,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6191,10 +6176,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6220,10 +6205,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6249,10 +6234,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6278,10 +6263,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -6307,10 +6292,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6336,10 +6321,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6365,10 +6350,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6394,10 +6379,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6423,10 +6408,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6452,10 +6437,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6481,10 +6466,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6510,10 +6495,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6539,13 +6524,13 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6568,10 +6553,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6597,10 +6582,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6626,10 +6611,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6655,10 +6640,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6684,10 +6669,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6713,10 +6698,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6742,10 +6727,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6771,10 +6756,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6800,10 +6785,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6829,10 +6814,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6858,10 +6843,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -6887,10 +6872,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6916,10 +6901,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6945,10 +6930,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6974,13 +6959,13 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -7003,10 +6988,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -7032,10 +7017,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7061,10 +7046,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7090,10 +7075,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7119,10 +7104,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7148,10 +7133,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>5</v>
@@ -7177,10 +7162,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7206,10 +7191,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G158" t="n">
         <v>5</v>
@@ -7235,10 +7220,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7264,10 +7249,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7293,10 +7278,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -7322,10 +7307,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>4</v>
@@ -7351,10 +7336,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7380,10 +7365,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7409,10 +7394,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7438,10 +7423,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7467,10 +7452,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7496,10 +7481,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7525,10 +7510,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7554,10 +7539,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7583,10 +7568,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7612,10 +7597,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7641,10 +7626,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7670,10 +7655,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7699,10 +7684,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7728,10 +7713,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7757,10 +7742,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7786,10 +7771,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7815,10 +7800,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7844,10 +7829,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7873,10 +7858,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -7902,10 +7887,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7931,10 +7916,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7960,10 +7945,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7989,10 +7974,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8018,10 +8003,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8047,10 +8032,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8076,10 +8061,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8105,10 +8090,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8134,10 +8119,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8163,10 +8148,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8192,10 +8177,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8221,10 +8206,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8250,10 +8235,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8279,10 +8264,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8308,10 +8293,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8337,10 +8322,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8366,10 +8351,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8395,10 +8380,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8424,10 +8409,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8453,10 +8438,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8482,10 +8467,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8511,10 +8496,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8540,10 +8525,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8569,10 +8554,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8598,10 +8583,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8627,10 +8612,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8656,10 +8641,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8685,10 +8670,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8714,10 +8699,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8743,10 +8728,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8772,10 +8757,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8801,10 +8786,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8830,10 +8815,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8859,10 +8844,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8888,10 +8873,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F216" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8917,10 +8902,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F217" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8946,10 +8931,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F218" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8975,10 +8960,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F219" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9004,10 +8989,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F220" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9033,10 +9018,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F221" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9062,10 +9047,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F222" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9091,10 +9076,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F223" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9120,10 +9105,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F224" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9149,10 +9134,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F225" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9178,10 +9163,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F226" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9207,10 +9192,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F227" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9236,10 +9221,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F228" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9265,10 +9250,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F229" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9294,10 +9279,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F230" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9323,10 +9308,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F231" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9352,10 +9337,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F232" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9381,10 +9366,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F233" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9410,10 +9395,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F234" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9439,10 +9424,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F235" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9468,10 +9453,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F236" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9497,10 +9482,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F237" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9526,10 +9511,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F238" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9555,10 +9540,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F239" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9584,10 +9569,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F240" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9613,10 +9598,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F241" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9642,10 +9627,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F242" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9671,10 +9656,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F243" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9700,10 +9685,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F244" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9729,10 +9714,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F245" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9758,10 +9743,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F246" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9787,10 +9772,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F247" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9816,10 +9801,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F248" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9845,10 +9830,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F249" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9874,10 +9859,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F250" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9903,10 +9888,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F251" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9932,10 +9917,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F252" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9961,10 +9946,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F253" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9990,10 +9975,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F254" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10019,10 +10004,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F255" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10048,10 +10033,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F256" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10077,10 +10062,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F257" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10106,10 +10091,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F258" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10135,10 +10120,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F259" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -10164,10 +10149,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F260" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10193,10 +10178,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F261" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10222,10 +10207,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F262" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10251,10 +10236,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F263" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10280,10 +10265,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F264" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10309,10 +10294,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F265" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10338,10 +10323,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F266" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10367,10 +10352,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F267" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10396,10 +10381,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F268" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10425,10 +10410,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F269" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10454,10 +10439,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F270" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10483,10 +10468,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F271" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10512,10 +10497,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F272" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10541,10 +10526,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F273" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10570,10 +10555,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F274" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10599,10 +10584,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F275" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10628,10 +10613,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F276" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10657,10 +10642,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F277" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10686,10 +10671,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F278" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10715,10 +10700,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F279" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10744,10 +10729,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F280" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10773,10 +10758,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F281" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10802,10 +10787,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F282" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10831,10 +10816,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F283" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10860,10 +10845,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F284" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10889,10 +10874,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F285" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10918,10 +10903,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F286" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10947,10 +10932,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F287" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10976,10 +10961,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F288" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11005,10 +10990,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F289" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11034,10 +11019,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F290" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11063,10 +11048,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F291" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11092,10 +11077,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F292" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11121,10 +11106,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F293" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11150,10 +11135,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F294" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11179,10 +11164,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F295" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11208,10 +11193,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F296" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11237,10 +11222,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F297" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11266,10 +11251,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F298" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11295,10 +11280,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F299" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11324,10 +11309,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F300" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11353,10 +11338,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F301" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11382,10 +11367,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F302" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11411,10 +11396,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F303" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11440,10 +11425,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F304" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11469,10 +11454,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F305" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11498,10 +11483,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F306" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11527,10 +11512,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F307" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11556,10 +11541,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F308" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11585,10 +11570,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F309" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11614,10 +11599,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F310" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11643,10 +11628,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F311" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11672,10 +11657,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F312" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11701,10 +11686,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F313" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11730,10 +11715,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F314" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11759,10 +11744,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F315" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11788,10 +11773,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F316" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11817,10 +11802,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F317" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11846,10 +11831,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F318" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11875,10 +11860,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F319" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11904,10 +11889,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F320" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11933,10 +11918,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F321" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11962,10 +11947,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F322" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11991,10 +11976,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F323" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12020,10 +12005,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F324" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12049,10 +12034,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F325" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12078,10 +12063,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F326" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12107,10 +12092,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F327" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12136,10 +12121,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F328" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12165,10 +12150,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F329" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12194,10 +12179,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F330" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12223,10 +12208,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F331" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12252,10 +12237,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F332" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12281,10 +12266,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F333" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12310,10 +12295,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F334" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12339,10 +12324,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F335" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12368,10 +12353,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F336" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12397,10 +12382,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F337" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12426,10 +12411,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F338" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12455,10 +12440,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F339" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12484,10 +12469,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F340" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12513,10 +12498,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F341" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12542,10 +12527,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F342" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12571,10 +12556,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F343" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12600,10 +12585,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F344" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12629,10 +12614,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F345" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12658,10 +12643,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F346" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12687,10 +12672,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F347" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12716,10 +12701,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F348" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12745,10 +12730,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F349" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12774,10 +12759,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F350" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12803,10 +12788,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F351" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12832,10 +12817,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F352" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12861,10 +12846,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F353" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12890,10 +12875,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F354" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12919,10 +12904,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F355" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -12948,10 +12933,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F356" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12977,10 +12962,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F357" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13006,10 +12991,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F358" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13035,10 +13020,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F359" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13064,10 +13049,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F360" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13093,10 +13078,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F361" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13122,10 +13107,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F362" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13151,10 +13136,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F363" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13180,10 +13165,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F364" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13209,10 +13194,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F365" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G365" t="n">
         <v>3</v>
@@ -13238,10 +13223,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F366" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13267,10 +13252,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F367" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13296,10 +13281,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F368" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13325,10 +13310,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F369" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13354,10 +13339,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F370" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13383,10 +13368,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F371" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13412,10 +13397,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F372" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13441,10 +13426,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F373" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13470,10 +13455,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F374" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13499,10 +13484,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F375" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13528,10 +13513,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F376" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13557,10 +13542,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F377" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13586,10 +13571,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F378" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13615,10 +13600,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F379" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13644,10 +13629,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F380" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G380" t="n">
         <v>3</v>
@@ -13673,10 +13658,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F381" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13702,10 +13687,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F382" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
